--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H2">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.041175666666667</v>
+        <v>1.175645333333333</v>
       </c>
       <c r="N2">
-        <v>6.123527</v>
+        <v>3.526936</v>
       </c>
       <c r="O2">
-        <v>0.1007574239555886</v>
+        <v>0.06804514706690673</v>
       </c>
       <c r="P2">
-        <v>0.1007574239555885</v>
+        <v>0.06804514706690673</v>
       </c>
       <c r="Q2">
-        <v>80.97073277812456</v>
+        <v>49.43724688019911</v>
       </c>
       <c r="R2">
-        <v>728.736595003121</v>
+        <v>444.935221921792</v>
       </c>
       <c r="S2">
-        <v>0.01557449985553176</v>
+        <v>0.01084935948088605</v>
       </c>
       <c r="T2">
-        <v>0.01557449985553176</v>
+        <v>0.01084935948088605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H3">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.53142</v>
       </c>
       <c r="O3">
-        <v>0.4694602279037812</v>
+        <v>0.5504564499973018</v>
       </c>
       <c r="P3">
-        <v>0.4694602279037812</v>
+        <v>0.5504564499973019</v>
       </c>
       <c r="Q3">
-        <v>377.2678694158511</v>
+        <v>399.926410454471</v>
       </c>
       <c r="R3">
-        <v>3395.41082474266</v>
+        <v>3599.337694090239</v>
       </c>
       <c r="S3">
-        <v>0.0725664468643832</v>
+        <v>0.08776672785674074</v>
       </c>
       <c r="T3">
-        <v>0.0725664468643832</v>
+        <v>0.08776672785674078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H4">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I4">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J4">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.046536</v>
+        <v>2.410127666666666</v>
       </c>
       <c r="N4">
-        <v>6.139608</v>
+        <v>7.230383</v>
       </c>
       <c r="O4">
-        <v>0.1010220231211724</v>
+        <v>0.1394957193964002</v>
       </c>
       <c r="P4">
-        <v>0.1010220231211723</v>
+        <v>0.1394957193964002</v>
       </c>
       <c r="Q4">
-        <v>81.18337009544268</v>
+        <v>101.3486577044195</v>
       </c>
       <c r="R4">
-        <v>730.650330858984</v>
+        <v>912.137919339776</v>
       </c>
       <c r="S4">
-        <v>0.01561540006421489</v>
+        <v>0.02224169203849667</v>
       </c>
       <c r="T4">
-        <v>0.01561540006421489</v>
+        <v>0.02224169203849668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H5">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I5">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J5">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.660130333333334</v>
+        <v>4.181184666666667</v>
       </c>
       <c r="N5">
-        <v>19.980391</v>
+        <v>12.543554</v>
       </c>
       <c r="O5">
-        <v>0.3287603250194579</v>
+        <v>0.2420026835393912</v>
       </c>
       <c r="P5">
-        <v>0.3287603250194578</v>
+        <v>0.2420026835393912</v>
       </c>
       <c r="Q5">
-        <v>264.1985412105548</v>
+        <v>175.8236542577209</v>
       </c>
       <c r="R5">
-        <v>2377.786870894993</v>
+        <v>1582.412888319488</v>
       </c>
       <c r="S5">
-        <v>0.05081786962692711</v>
+        <v>0.03858576580746181</v>
       </c>
       <c r="T5">
-        <v>0.0508178696269271</v>
+        <v>0.03858576580746181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H6">
         <v>172.981738</v>
       </c>
       <c r="I6">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J6">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.041175666666667</v>
+        <v>1.175645333333333</v>
       </c>
       <c r="N6">
-        <v>6.123527</v>
+        <v>3.526936</v>
       </c>
       <c r="O6">
-        <v>0.1007574239555886</v>
+        <v>0.06804514706690673</v>
       </c>
       <c r="P6">
-        <v>0.1007574239555885</v>
+        <v>0.06804514706690673</v>
       </c>
       <c r="Q6">
-        <v>117.6953714611029</v>
+        <v>67.78839101052978</v>
       </c>
       <c r="R6">
-        <v>1059.258343149926</v>
+        <v>610.095519094768</v>
       </c>
       <c r="S6">
-        <v>0.02263838405465102</v>
+        <v>0.01487665007896451</v>
       </c>
       <c r="T6">
-        <v>0.02263838405465102</v>
+        <v>0.01487665007896451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H7">
         <v>172.981738</v>
       </c>
       <c r="I7">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J7">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>28.53142</v>
       </c>
       <c r="O7">
-        <v>0.4694602279037812</v>
+        <v>0.5504564499973018</v>
       </c>
       <c r="P7">
-        <v>0.4694602279037812</v>
+        <v>0.5504564499973019</v>
       </c>
       <c r="Q7">
-        <v>548.3794021342177</v>
+        <v>548.3794021342176</v>
       </c>
       <c r="R7">
-        <v>4935.41461920796</v>
+        <v>4935.414619207959</v>
       </c>
       <c r="S7">
-        <v>0.1054792840114122</v>
+        <v>0.1203458048561044</v>
       </c>
       <c r="T7">
-        <v>0.1054792840114122</v>
+        <v>0.1203458048561044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H8">
         <v>172.981738</v>
       </c>
       <c r="I8">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J8">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.046536</v>
+        <v>2.410127666666666</v>
       </c>
       <c r="N8">
-        <v>6.139608</v>
+        <v>7.230383</v>
       </c>
       <c r="O8">
-        <v>0.1010220231211724</v>
+        <v>0.1394957193964002</v>
       </c>
       <c r="P8">
-        <v>0.1010220231211723</v>
+        <v>0.1394957193964002</v>
       </c>
       <c r="Q8">
-        <v>118.0044513865227</v>
+        <v>138.9693575272948</v>
       </c>
       <c r="R8">
-        <v>1062.040062478704</v>
+        <v>1250.724217745654</v>
       </c>
       <c r="S8">
-        <v>0.02269783473625704</v>
+        <v>0.03049782525906157</v>
       </c>
       <c r="T8">
-        <v>0.02269783473625703</v>
+        <v>0.03049782525906158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H9">
         <v>172.981738</v>
       </c>
       <c r="I9">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J9">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.660130333333334</v>
+        <v>4.181184666666667</v>
       </c>
       <c r="N9">
-        <v>19.980391</v>
+        <v>12.543554</v>
       </c>
       <c r="O9">
-        <v>0.3287603250194579</v>
+        <v>0.2420026835393912</v>
       </c>
       <c r="P9">
-        <v>0.3287603250194578</v>
+        <v>0.2420026835393912</v>
       </c>
       <c r="Q9">
-        <v>384.0269734555065</v>
+        <v>241.0895301796502</v>
       </c>
       <c r="R9">
-        <v>3456.242761099558</v>
+        <v>2169.805771616852</v>
       </c>
       <c r="S9">
-        <v>0.07386654211210186</v>
+        <v>0.05290883180318427</v>
       </c>
       <c r="T9">
-        <v>0.07386654211210185</v>
+        <v>0.05290883180318428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H10">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I10">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J10">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.041175666666667</v>
+        <v>1.175645333333333</v>
       </c>
       <c r="N10">
-        <v>6.123527</v>
+        <v>3.526936</v>
       </c>
       <c r="O10">
-        <v>0.1007574239555886</v>
+        <v>0.06804514706690673</v>
       </c>
       <c r="P10">
-        <v>0.1007574239555885</v>
+        <v>0.06804514706690673</v>
       </c>
       <c r="Q10">
-        <v>192.5011645065183</v>
+        <v>116.5675896176027</v>
       </c>
       <c r="R10">
-        <v>1732.510480558665</v>
+        <v>1049.108306558424</v>
       </c>
       <c r="S10">
-        <v>0.03702707454818105</v>
+        <v>0.02558159613229413</v>
       </c>
       <c r="T10">
-        <v>0.03702707454818104</v>
+        <v>0.02558159613229414</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H11">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I11">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J11">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>28.53142</v>
       </c>
       <c r="O11">
-        <v>0.4694602279037812</v>
+        <v>0.5504564499973018</v>
       </c>
       <c r="P11">
-        <v>0.4694602279037812</v>
+        <v>0.5504564499973019</v>
       </c>
       <c r="Q11">
-        <v>896.9228967267666</v>
+        <v>942.9824804780865</v>
       </c>
       <c r="R11">
-        <v>8072.306070540899</v>
+        <v>8486.842324302779</v>
       </c>
       <c r="S11">
-        <v>0.1725206756343956</v>
+        <v>0.2069442891849637</v>
       </c>
       <c r="T11">
-        <v>0.1725206756343956</v>
+        <v>0.2069442891849638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H12">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I12">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J12">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.046536</v>
+        <v>2.410127666666666</v>
       </c>
       <c r="N12">
-        <v>6.139608</v>
+        <v>7.230383</v>
       </c>
       <c r="O12">
-        <v>0.1010220231211724</v>
+        <v>0.1394957193964002</v>
       </c>
       <c r="P12">
-        <v>0.1010220231211723</v>
+        <v>0.1394957193964002</v>
       </c>
       <c r="Q12">
-        <v>193.00669199524</v>
+        <v>238.9689856357163</v>
       </c>
       <c r="R12">
-        <v>1737.06022795716</v>
+        <v>2150.720870721447</v>
       </c>
       <c r="S12">
-        <v>0.03712431138339208</v>
+        <v>0.05244346304775737</v>
       </c>
       <c r="T12">
-        <v>0.03712431138339208</v>
+        <v>0.05244346304775739</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H13">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I13">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J13">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.660130333333334</v>
+        <v>4.181184666666667</v>
       </c>
       <c r="N13">
-        <v>19.980391</v>
+        <v>12.543554</v>
       </c>
       <c r="O13">
-        <v>0.3287603250194579</v>
+        <v>0.2420026835393912</v>
       </c>
       <c r="P13">
-        <v>0.3287603250194578</v>
+        <v>0.2420026835393912</v>
       </c>
       <c r="Q13">
-        <v>628.1099985017718</v>
+        <v>414.5728346128873</v>
       </c>
       <c r="R13">
-        <v>5652.989986515945</v>
+        <v>3731.155511515986</v>
       </c>
       <c r="S13">
-        <v>0.1208152470069628</v>
+        <v>0.09098099100511678</v>
       </c>
       <c r="T13">
-        <v>0.1208152470069628</v>
+        <v>0.09098099100511681</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H14">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I14">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J14">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.041175666666667</v>
+        <v>1.175645333333333</v>
       </c>
       <c r="N14">
-        <v>6.123527</v>
+        <v>3.526936</v>
       </c>
       <c r="O14">
-        <v>0.1007574239555886</v>
+        <v>0.06804514706690673</v>
       </c>
       <c r="P14">
-        <v>0.1007574239555885</v>
+        <v>0.06804514706690673</v>
       </c>
       <c r="Q14">
-        <v>132.6635140207687</v>
+        <v>76.26790932399645</v>
       </c>
       <c r="R14">
-        <v>1193.971626186918</v>
+        <v>686.411183915968</v>
       </c>
       <c r="S14">
-        <v>0.02551746549722473</v>
+        <v>0.01673754137476204</v>
       </c>
       <c r="T14">
-        <v>0.02551746549722473</v>
+        <v>0.01673754137476204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H15">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I15">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J15">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>28.53142</v>
       </c>
       <c r="O15">
-        <v>0.4694602279037812</v>
+        <v>0.5504564499973018</v>
       </c>
       <c r="P15">
-        <v>0.4694602279037812</v>
+        <v>0.5504564499973019</v>
       </c>
       <c r="Q15">
-        <v>618.1206414542532</v>
+        <v>616.9751176218842</v>
       </c>
       <c r="R15">
-        <v>5563.085773088279</v>
+        <v>5552.776058596959</v>
       </c>
       <c r="S15">
-        <v>0.1188938213935902</v>
+        <v>0.1353996280994929</v>
       </c>
       <c r="T15">
-        <v>0.1188938213935902</v>
+        <v>0.135399628099493</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H16">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I16">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J16">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.046536</v>
+        <v>2.410127666666666</v>
       </c>
       <c r="N16">
-        <v>6.139608</v>
+        <v>7.230383</v>
       </c>
       <c r="O16">
-        <v>0.1010220231211724</v>
+        <v>0.1394957193964002</v>
       </c>
       <c r="P16">
-        <v>0.1010220231211723</v>
+        <v>0.1394957193964002</v>
       </c>
       <c r="Q16">
-        <v>133.011901799408</v>
+        <v>156.3527648422782</v>
       </c>
       <c r="R16">
-        <v>1197.107116194672</v>
+        <v>1407.174883580504</v>
       </c>
       <c r="S16">
-        <v>0.02558447693730834</v>
+        <v>0.03431273905108459</v>
       </c>
       <c r="T16">
-        <v>0.02558447693730834</v>
+        <v>0.0343127390510846</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H17">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I17">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J17">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.660130333333334</v>
+        <v>4.181184666666667</v>
       </c>
       <c r="N17">
-        <v>19.980391</v>
+        <v>12.543554</v>
       </c>
       <c r="O17">
-        <v>0.3287603250194579</v>
+        <v>0.2420026835393912</v>
       </c>
       <c r="P17">
-        <v>0.3287603250194578</v>
+        <v>0.2420026835393912</v>
       </c>
       <c r="Q17">
-        <v>432.8663663226994</v>
+        <v>271.2469517656835</v>
       </c>
       <c r="R17">
-        <v>3895.797296904294</v>
+        <v>2441.222565891152</v>
       </c>
       <c r="S17">
-        <v>0.08326066627346618</v>
+        <v>0.0595270949236283</v>
       </c>
       <c r="T17">
-        <v>0.08326066627346616</v>
+        <v>0.05952709492362832</v>
       </c>
     </row>
   </sheetData>
